--- a/IP-пллан.xlsx
+++ b/IP-пллан.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>Название устройства</t>
   </si>
@@ -124,15 +124,6 @@
     <t>30.16.2.1/24</t>
   </si>
   <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>ens4</t>
-  </si>
-  <si>
-    <t>ens5</t>
-  </si>
-  <si>
     <t>30.16.3.2/24</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>10.16.7.101/16</t>
   </si>
   <si>
-    <t>30.16.2.3/24</t>
-  </si>
-  <si>
     <t>100.16.2.2/24</t>
   </si>
   <si>
@@ -263,6 +251,51 @@
   </si>
   <si>
     <t>10.16.7.2/16</t>
+  </si>
+  <si>
+    <t>loopback0</t>
+  </si>
+  <si>
+    <t>1.1.1.1/32</t>
+  </si>
+  <si>
+    <t>2.2.2.2/32</t>
+  </si>
+  <si>
+    <t>3.3.3.3/32</t>
+  </si>
+  <si>
+    <t>4.4.4.4/32</t>
+  </si>
+  <si>
+    <t>5.5.5.5/32</t>
+  </si>
+  <si>
+    <t>6.6.6.6/32</t>
+  </si>
+  <si>
+    <t>7.7.7.7/32</t>
+  </si>
+  <si>
+    <t>8.8.8.8/32</t>
+  </si>
+  <si>
+    <t>9.9.9.9/32</t>
+  </si>
+  <si>
+    <t>10.10.10.10/32</t>
+  </si>
+  <si>
+    <t>11.11.11.11/32</t>
+  </si>
+  <si>
+    <t>12.12.12.12/32</t>
+  </si>
+  <si>
+    <t>13.13.13.13/32</t>
+  </si>
+  <si>
+    <t>14.14.14.14/32</t>
   </si>
 </sst>
 </file>
@@ -323,11 +356,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -674,7 +707,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -683,64 +716,63 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" t="s">
         <v>23</v>
       </c>
@@ -749,396 +781,462 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>81</v>
+      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>82</v>
+      </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
       <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
       <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s">
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>